--- a/data/spreadsheet/VacationRequestTemplate.xlsx
+++ b/data/spreadsheet/VacationRequestTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insulpro\data\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69B585E-0F2C-4C5A-960B-A7841C4D2F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567E378-4377-452E-B8CA-81E092BBA894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFAE7C96-7483-4E4D-A06E-ED68673B4077}"/>
   </bookViews>
@@ -60,9 +60,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,27 +436,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2856C04-F250-4326-8F7D-0E674F8E7FD4}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
